--- a/Codigo Python/df.xlsx
+++ b/Codigo Python/df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
   <si>
     <t>Fecha_Turno</t>
   </si>
@@ -34,12 +34,24 @@
     <t>Nicolas</t>
   </si>
   <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Maxi</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Julieta</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
     <t>Matias</t>
   </si>
   <si>
-    <t>Luis</t>
-  </si>
-  <si>
     <t>Alejandro</t>
   </si>
   <si>
@@ -49,52 +61,49 @@
     <t>Giuliana</t>
   </si>
   <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Maxi</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Julieta</t>
-  </si>
-  <si>
     <t>Schiavi</t>
   </si>
   <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Gonzales</t>
+  </si>
+  <si>
+    <t>Reta</t>
+  </si>
+  <si>
+    <t>Casal</t>
+  </si>
+  <si>
     <t>Guitierrez</t>
   </si>
   <si>
-    <t>Casal</t>
-  </si>
-  <si>
     <t>Galo</t>
   </si>
   <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>Gomez</t>
-  </si>
-  <si>
-    <t>Gonzales</t>
-  </si>
-  <si>
-    <t>Reta</t>
-  </si>
-  <si>
     <t>covid</t>
   </si>
   <si>
+    <t>gripe</t>
+  </si>
+  <si>
+    <t>fractura</t>
+  </si>
+  <si>
+    <t>gastritis</t>
+  </si>
+  <si>
     <t>estrés</t>
   </si>
   <si>
-    <t>gastritis</t>
-  </si>
-  <si>
     <t>fiebre</t>
+  </si>
+  <si>
+    <t>mal estar</t>
   </si>
   <si>
     <t>dolor de cuerpo</t>
@@ -465,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,12 +511,12 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>44568</v>
+        <v>44594</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -516,32 +525,32 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>44567</v>
+        <v>44594</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>44566</v>
+        <v>44594</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -553,12 +562,12 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>44565</v>
+        <v>44594</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -567,89 +576,89 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>44564</v>
+        <v>44594</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>44563</v>
+        <v>44594</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>44562</v>
+        <v>44594</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>44562</v>
+        <v>44568</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>44562</v>
+        <v>44567</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -660,19 +669,138 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
+        <v>44566</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>44565</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>44564</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>44563</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
         <v>44562</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
